--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -1588,7 +1588,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111528300</v>
+        <v>111528980</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1629,10 +1629,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>467795.2212022893</v>
+        <v>467799.8074815667</v>
       </c>
       <c r="R10" t="n">
-        <v>6875452.272210476</v>
+        <v>6875539.119922069</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1675,11 +1675,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1706,7 +1701,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111528980</v>
+        <v>111527876</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1743,14 +1738,14 @@
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Fläcksberget V, Hjd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>467799.8074815667</v>
+        <v>467615.2905344999</v>
       </c>
       <c r="R11" t="n">
-        <v>6875539.119922069</v>
+        <v>6875426.740629551</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1819,7 +1814,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111527806</v>
+        <v>111528300</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1856,14 +1851,14 @@
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Fläcksberget V, Hjd</t>
+          <t>Fläcksberget, Hjd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>467615.2905344999</v>
+        <v>467795.2212022893</v>
       </c>
       <c r="R12" t="n">
-        <v>6875426.740629551</v>
+        <v>6875452.272210476</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1906,6 +1901,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -1588,7 +1588,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111528980</v>
+        <v>111527876</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1625,14 +1625,14 @@
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Fläcksberget V, Hjd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>467799.8074815667</v>
+        <v>467615.2905344999</v>
       </c>
       <c r="R10" t="n">
-        <v>6875539.119922069</v>
+        <v>6875426.740629551</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111527876</v>
+        <v>111528300</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1738,14 +1738,14 @@
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Fläcksberget V, Hjd</t>
+          <t>Fläcksberget, Hjd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>467615.2905344999</v>
+        <v>467795.2212022893</v>
       </c>
       <c r="R11" t="n">
-        <v>6875426.740629551</v>
+        <v>6875452.272210476</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1788,6 +1788,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1814,7 +1819,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111528300</v>
+        <v>111528203</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1855,10 +1860,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>467795.2212022893</v>
+        <v>467745.6122397452</v>
       </c>
       <c r="R12" t="n">
-        <v>6875452.272210476</v>
+        <v>6875429.258361855</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1901,11 +1906,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1932,7 +1932,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111528203</v>
+        <v>111528980</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1973,10 +1973,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>467745.6122397452</v>
+        <v>467799.8074815667</v>
       </c>
       <c r="R13" t="n">
-        <v>6875429.258361855</v>
+        <v>6875539.119922069</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>

--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111527876</v>
+        <v>111528980</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1625,14 +1625,14 @@
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Fläcksberget V, Hjd</t>
+          <t>Fläcksberget, Hjd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>467615.2905344999</v>
+        <v>467799.8074815667</v>
       </c>
       <c r="R10" t="n">
-        <v>6875426.740629551</v>
+        <v>6875539.119922069</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111528300</v>
+        <v>111527876</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1738,14 +1738,14 @@
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Fläcksberget V, Hjd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>467795.2212022893</v>
+        <v>467615.2905344999</v>
       </c>
       <c r="R11" t="n">
-        <v>6875452.272210476</v>
+        <v>6875426.740629551</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1788,11 +1788,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1819,7 +1814,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111528203</v>
+        <v>111528300</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1860,10 +1855,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>467745.6122397452</v>
+        <v>467795.2212022893</v>
       </c>
       <c r="R12" t="n">
-        <v>6875429.258361855</v>
+        <v>6875452.272210476</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1906,6 +1901,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1932,7 +1932,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111528980</v>
+        <v>111528203</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1973,10 +1973,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>467799.8074815667</v>
+        <v>467745.6122397452</v>
       </c>
       <c r="R13" t="n">
-        <v>6875539.119922069</v>
+        <v>6875429.258361855</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2042,6 +2042,702 @@
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111908768</v>
+      </c>
+      <c r="B14" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Fläcksberget, Hjd</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>467911.8445363804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6875299.456096188</v>
+      </c>
+      <c r="S14" t="n">
+        <v>20</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111909536</v>
+      </c>
+      <c r="B15" t="n">
+        <v>77267</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Fläcksberget, Hjd</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>467891.3929605001</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6875425.059267788</v>
+      </c>
+      <c r="S15" t="n">
+        <v>20</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111909174</v>
+      </c>
+      <c r="B16" t="n">
+        <v>77267</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Fläcksberget, Hjd</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>467989.0228066717</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6875352.744105402</v>
+      </c>
+      <c r="S16" t="n">
+        <v>20</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111908700</v>
+      </c>
+      <c r="B17" t="n">
+        <v>89965</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>760</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Doftticka</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Haploporus odorus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Fläcksberget, Hjd</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>467921.7931363151</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6875306.87748003</v>
+      </c>
+      <c r="S17" t="n">
+        <v>20</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Förekomst av doftticka i avverkningsanmält område.</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111908364</v>
+      </c>
+      <c r="B18" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Gröbäcken, Hjd</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>467724.2196293612</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6874811.291555981</v>
+      </c>
+      <c r="S18" t="n">
+        <v>20</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111909766</v>
+      </c>
+      <c r="B19" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Fläcksberget, Hjd</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>467756.8135427741</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6875469.545251801</v>
+      </c>
+      <c r="S19" t="n">
+        <v>20</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111528980</v>
+        <v>111527876</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1625,14 +1625,14 @@
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Fläcksberget V, Hjd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>467799.8074815667</v>
+        <v>467615.2905344999</v>
       </c>
       <c r="R10" t="n">
-        <v>6875539.119922069</v>
+        <v>6875426.740629551</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111527876</v>
+        <v>111528980</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1738,14 +1738,14 @@
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Fläcksberget V, Hjd</t>
+          <t>Fläcksberget, Hjd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>467615.2905344999</v>
+        <v>467799.8074815667</v>
       </c>
       <c r="R11" t="n">
-        <v>6875426.740629551</v>
+        <v>6875539.119922069</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111908768</v>
+        <v>111942712</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2057,32 +2057,28 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2090,10 +2086,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>467911.8445363804</v>
+        <v>468231.4750461024</v>
       </c>
       <c r="R14" t="n">
-        <v>6875299.456096188</v>
+        <v>6875021.661872049</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2120,7 +2116,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2130,7 +2126,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2159,585 +2155,6 @@
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>111909536</v>
-      </c>
-      <c r="B15" t="n">
-        <v>77267</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>6446</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kolflarnlav</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Carbonicola anthracophila</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Fläcksberget, Hjd</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>467891.3929605001</v>
-      </c>
-      <c r="R15" t="n">
-        <v>6875425.059267788</v>
-      </c>
-      <c r="S15" t="n">
-        <v>20</v>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Jämtland</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>Härjedalen</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Härjedalen</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Sveg</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AD15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr">
-        <is>
-          <t>lennart karlsson</t>
-        </is>
-      </c>
-      <c r="AX15" t="inlineStr">
-        <is>
-          <t>lennart karlsson</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>111909174</v>
-      </c>
-      <c r="B16" t="n">
-        <v>77267</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>6446</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kolflarnlav</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Carbonicola anthracophila</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Fläcksberget, Hjd</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>467989.0228066717</v>
-      </c>
-      <c r="R16" t="n">
-        <v>6875352.744105402</v>
-      </c>
-      <c r="S16" t="n">
-        <v>20</v>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Jämtland</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>Härjedalen</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Härjedalen</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Sveg</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AD16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr">
-        <is>
-          <t>lennart karlsson</t>
-        </is>
-      </c>
-      <c r="AX16" t="inlineStr">
-        <is>
-          <t>lennart karlsson</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>111908700</v>
-      </c>
-      <c r="B17" t="n">
-        <v>89965</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VU</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>760</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Doftticka</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Haploporus odorus</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Fläcksberget, Hjd</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>467921.7931363151</v>
-      </c>
-      <c r="R17" t="n">
-        <v>6875306.87748003</v>
-      </c>
-      <c r="S17" t="n">
-        <v>20</v>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Jämtland</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>Härjedalen</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>Härjedalen</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Sveg</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Förekomst av doftticka i avverkningsanmält område.</t>
-        </is>
-      </c>
-      <c r="AD17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr">
-        <is>
-          <t>lennart karlsson</t>
-        </is>
-      </c>
-      <c r="AX17" t="inlineStr">
-        <is>
-          <t>lennart karlsson</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>111908364</v>
-      </c>
-      <c r="B18" t="n">
-        <v>90660</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>4362</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Blå taggsvamp</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Hydnellum caeruleum</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Gröbäcken, Hjd</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>467724.2196293612</v>
-      </c>
-      <c r="R18" t="n">
-        <v>6874811.291555981</v>
-      </c>
-      <c r="S18" t="n">
-        <v>20</v>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>Jämtland</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>Härjedalen</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>Härjedalen</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Sveg</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AD18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AW18" t="inlineStr">
-        <is>
-          <t>lennart karlsson</t>
-        </is>
-      </c>
-      <c r="AX18" t="inlineStr">
-        <is>
-          <t>lennart karlsson</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>111909766</v>
-      </c>
-      <c r="B19" t="n">
-        <v>89183</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>3215</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Rödgul trumpetsvamp</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Craterellus lutescens</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Fläcksberget, Hjd</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
-        <v>467756.8135427741</v>
-      </c>
-      <c r="R19" t="n">
-        <v>6875469.545251801</v>
-      </c>
-      <c r="S19" t="n">
-        <v>20</v>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Jämtland</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>Härjedalen</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>Härjedalen</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Sveg</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AD19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr">
-        <is>
-          <t>lennart karlsson</t>
-        </is>
-      </c>
-      <c r="AX19" t="inlineStr">
-        <is>
-          <t>lennart karlsson</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY14"/>
+  <dimension ref="A1:AY20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111527876</v>
+        <v>111528300</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1625,14 +1625,14 @@
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Fläcksberget V, Hjd</t>
+          <t>Fläcksberget, Hjd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>467615.2905344999</v>
+        <v>467795.2212022893</v>
       </c>
       <c r="R10" t="n">
-        <v>6875426.740629551</v>
+        <v>6875452.272210476</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1675,6 +1675,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1814,7 +1819,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111528300</v>
+        <v>111527876</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1851,14 +1856,14 @@
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Fläcksberget V, Hjd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>467795.2212022893</v>
+        <v>467615.2905344999</v>
       </c>
       <c r="R12" t="n">
-        <v>6875452.272210476</v>
+        <v>6875426.740629551</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1901,11 +1906,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2045,10 +2045,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111942712</v>
+        <v>111908364</v>
       </c>
       <c r="B14" t="n">
-        <v>77267</v>
+        <v>90660</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2061,35 +2061,35 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6446</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Gröbäcken, Hjd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>468231.4750461024</v>
+        <v>467724.2196293612</v>
       </c>
       <c r="R14" t="n">
-        <v>6875021.661872049</v>
+        <v>6874811.291555981</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2155,6 +2155,702 @@
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111909536</v>
+      </c>
+      <c r="B15" t="n">
+        <v>77267</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Fläcksberget, Hjd</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>467891.3929605001</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6875425.059267788</v>
+      </c>
+      <c r="S15" t="n">
+        <v>20</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111908700</v>
+      </c>
+      <c r="B16" t="n">
+        <v>89965</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>760</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Doftticka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Haploporus odorus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Fläcksberget, Hjd</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>467921.7931363151</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6875306.87748003</v>
+      </c>
+      <c r="S16" t="n">
+        <v>20</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Förekomst av doftticka i avverkningsanmält område.</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111908768</v>
+      </c>
+      <c r="B17" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Fläcksberget, Hjd</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>467911.8445363804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6875299.456096188</v>
+      </c>
+      <c r="S17" t="n">
+        <v>20</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111909766</v>
+      </c>
+      <c r="B18" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Fläcksberget, Hjd</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>467756.8135427741</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6875469.545251801</v>
+      </c>
+      <c r="S18" t="n">
+        <v>20</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111909174</v>
+      </c>
+      <c r="B19" t="n">
+        <v>77267</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Fläcksberget, Hjd</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>467989.0228066717</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6875352.744105402</v>
+      </c>
+      <c r="S19" t="n">
+        <v>20</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111942712</v>
+      </c>
+      <c r="B20" t="n">
+        <v>77267</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Fläcksberget, Hjd</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>468231.4750461024</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6875021.661872049</v>
+      </c>
+      <c r="S20" t="n">
+        <v>20</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY20"/>
+  <dimension ref="A1:AY29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2852,6 +2852,1023 @@
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112014423</v>
+      </c>
+      <c r="B21" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Fläcksberget V, Hjd</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>467430.0274016621</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6875237.811246304</v>
+      </c>
+      <c r="S21" t="n">
+        <v>20</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112014208</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Fläcksberget V, Hjd</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>467418.043506761</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6875312.610613029</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112015011</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Fläcksberget V, Hjd</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>467389.9660160011</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6875327.91063729</v>
+      </c>
+      <c r="S23" t="n">
+        <v>20</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112014229</v>
+      </c>
+      <c r="B24" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Fläcksberget V, Hjd</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>467427.230114766</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6875289.506732536</v>
+      </c>
+      <c r="S24" t="n">
+        <v>20</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112014142</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Fläcksberget V, Hjd</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>467442.7363991642</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6875336.798642672</v>
+      </c>
+      <c r="S25" t="n">
+        <v>20</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112014923</v>
+      </c>
+      <c r="B26" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Fläcksberget V, Hjd</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>467413.0579403224</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6875234.216212902</v>
+      </c>
+      <c r="S26" t="n">
+        <v>20</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112014177</v>
+      </c>
+      <c r="B27" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Fläcksberget V, Hjd</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>467389.9660160011</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6875327.91063729</v>
+      </c>
+      <c r="S27" t="n">
+        <v>20</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112014300</v>
+      </c>
+      <c r="B28" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Fläcksberget V, Hjd</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>467415.4484496959</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6875287.271149865</v>
+      </c>
+      <c r="S28" t="n">
+        <v>20</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112014347</v>
+      </c>
+      <c r="B29" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Fläcksberget V, Hjd</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>467430.0274016621</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6875237.811246304</v>
+      </c>
+      <c r="S29" t="n">
+        <v>20</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>lennart karlsson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -1588,7 +1588,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111528300</v>
+        <v>111528203</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1629,10 +1629,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>467795.2212022893</v>
+        <v>467745.6122397452</v>
       </c>
       <c r="R10" t="n">
-        <v>6875452.272210476</v>
+        <v>6875429.258361855</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1675,11 +1675,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1706,7 +1701,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111528980</v>
+        <v>111527806</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1743,14 +1738,14 @@
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Fläcksberget V, Hjd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>467799.8074815667</v>
+        <v>467615.2905344999</v>
       </c>
       <c r="R11" t="n">
-        <v>6875539.119922069</v>
+        <v>6875426.740629551</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1819,7 +1814,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111527876</v>
+        <v>111528365</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1856,14 +1851,14 @@
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Fläcksberget V, Hjd</t>
+          <t>Fläcksberget, Hjd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>467615.2905344999</v>
+        <v>467795.2212022893</v>
       </c>
       <c r="R12" t="n">
-        <v>6875426.740629551</v>
+        <v>6875452.272210476</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1932,7 +1927,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111528203</v>
+        <v>111528980</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1973,10 +1968,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>467745.6122397452</v>
+        <v>467799.8074815667</v>
       </c>
       <c r="R13" t="n">
-        <v>6875429.258361855</v>
+        <v>6875539.119922069</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2045,10 +2040,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111908364</v>
+        <v>111909536</v>
       </c>
       <c r="B14" t="n">
-        <v>90660</v>
+        <v>77267</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2061,35 +2056,35 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Gröbäcken, Hjd</t>
+          <t>Fläcksberget, Hjd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>467724.2196293612</v>
+        <v>467891.3929605001</v>
       </c>
       <c r="R14" t="n">
-        <v>6874811.291555981</v>
+        <v>6875425.059267788</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2158,10 +2153,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111909536</v>
+        <v>111908768</v>
       </c>
       <c r="B15" t="n">
-        <v>77267</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2170,28 +2165,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2199,10 +2198,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>467891.3929605001</v>
+        <v>467911.8445363804</v>
       </c>
       <c r="R15" t="n">
-        <v>6875425.059267788</v>
+        <v>6875299.456096188</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2271,10 +2270,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111908700</v>
+        <v>111908364</v>
       </c>
       <c r="B16" t="n">
-        <v>89965</v>
+        <v>90660</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2283,48 +2282,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>760</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Gröbäcken, Hjd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>467921.7931363151</v>
+        <v>467724.2196293612</v>
       </c>
       <c r="R16" t="n">
-        <v>6875306.87748003</v>
+        <v>6874811.291555981</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2367,11 +2357,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Förekomst av doftticka i avverkningsanmält område.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2398,10 +2383,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111908768</v>
+        <v>111909174</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2410,32 +2395,28 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2443,10 +2424,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>467911.8445363804</v>
+        <v>467989.0228066717</v>
       </c>
       <c r="R17" t="n">
-        <v>6875299.456096188</v>
+        <v>6875352.744105402</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2628,10 +2609,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111909174</v>
+        <v>111908700</v>
       </c>
       <c r="B19" t="n">
-        <v>77267</v>
+        <v>89965</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2640,28 +2621,37 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6446</v>
+        <v>760</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2669,10 +2659,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>467989.0228066717</v>
+        <v>467921.7931363151</v>
       </c>
       <c r="R19" t="n">
-        <v>6875352.744105402</v>
+        <v>6875306.87748003</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2715,6 +2705,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Förekomst av doftticka i avverkningsanmält område.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2854,7 +2849,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112014423</v>
+        <v>112014208</v>
       </c>
       <c r="B21" t="n">
         <v>90658</v>
@@ -2895,10 +2890,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>467430.0274016621</v>
+        <v>467418.043506761</v>
       </c>
       <c r="R21" t="n">
-        <v>6875237.811246304</v>
+        <v>6875312.610613029</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2967,7 +2962,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112014208</v>
+        <v>112015011</v>
       </c>
       <c r="B22" t="n">
         <v>90658</v>
@@ -3008,10 +3003,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>467418.043506761</v>
+        <v>467389.9660160011</v>
       </c>
       <c r="R22" t="n">
-        <v>6875312.610613029</v>
+        <v>6875327.91063729</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3080,10 +3075,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112015011</v>
+        <v>112014229</v>
       </c>
       <c r="B23" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3096,21 +3091,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3121,10 +3116,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>467389.9660160011</v>
+        <v>467427.230114766</v>
       </c>
       <c r="R23" t="n">
-        <v>6875327.91063729</v>
+        <v>6875289.506732536</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3193,10 +3188,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112014229</v>
+        <v>112014423</v>
       </c>
       <c r="B24" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3209,21 +3204,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3234,10 +3229,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>467427.230114766</v>
+        <v>467430.0274016621</v>
       </c>
       <c r="R24" t="n">
-        <v>6875289.506732536</v>
+        <v>6875237.811246304</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3306,10 +3301,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112014142</v>
+        <v>112014177</v>
       </c>
       <c r="B25" t="n">
-        <v>90666</v>
+        <v>90689</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3318,25 +3313,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3347,10 +3342,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>467442.7363991642</v>
+        <v>467389.9660160011</v>
       </c>
       <c r="R25" t="n">
-        <v>6875336.798642672</v>
+        <v>6875327.91063729</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3532,10 +3527,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112014177</v>
+        <v>112014347</v>
       </c>
       <c r="B27" t="n">
-        <v>90689</v>
+        <v>90678</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3544,25 +3539,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5966</v>
+        <v>4366</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3573,10 +3568,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>467389.9660160011</v>
+        <v>467430.0274016621</v>
       </c>
       <c r="R27" t="n">
-        <v>6875327.91063729</v>
+        <v>6875237.811246304</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3645,10 +3640,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112014300</v>
+        <v>112014142</v>
       </c>
       <c r="B28" t="n">
-        <v>90689</v>
+        <v>90666</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3657,25 +3652,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3686,10 +3681,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>467415.4484496959</v>
+        <v>467442.7363991642</v>
       </c>
       <c r="R28" t="n">
-        <v>6875287.271149865</v>
+        <v>6875336.798642672</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3758,10 +3753,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112014347</v>
+        <v>112014300</v>
       </c>
       <c r="B29" t="n">
-        <v>90678</v>
+        <v>90689</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3770,25 +3765,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4366</v>
+        <v>5966</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3799,10 +3794,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>467430.0274016621</v>
+        <v>467415.4484496959</v>
       </c>
       <c r="R29" t="n">
-        <v>6875237.811246304</v>
+        <v>6875287.271149865</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>

--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -1588,7 +1588,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111528203</v>
+        <v>111527806</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1625,14 +1625,14 @@
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Fläcksberget V, Hjd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>467745.6122397452</v>
+        <v>467615.2905344999</v>
       </c>
       <c r="R10" t="n">
-        <v>6875429.258361855</v>
+        <v>6875426.740629551</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111527806</v>
+        <v>111528365</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1738,14 +1738,14 @@
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Fläcksberget V, Hjd</t>
+          <t>Fläcksberget, Hjd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>467615.2905344999</v>
+        <v>467795.2212022893</v>
       </c>
       <c r="R11" t="n">
-        <v>6875426.740629551</v>
+        <v>6875452.272210476</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111528365</v>
+        <v>111528980</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>467795.2212022893</v>
+        <v>467799.8074815667</v>
       </c>
       <c r="R12" t="n">
-        <v>6875452.272210476</v>
+        <v>6875539.119922069</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111528980</v>
+        <v>111528203</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1968,10 +1968,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>467799.8074815667</v>
+        <v>467745.6122397452</v>
       </c>
       <c r="R13" t="n">
-        <v>6875539.119922069</v>
+        <v>6875429.258361855</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111909536</v>
+        <v>111908768</v>
       </c>
       <c r="B14" t="n">
-        <v>77267</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2052,28 +2052,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2081,10 +2085,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>467891.3929605001</v>
+        <v>467911.8445363804</v>
       </c>
       <c r="R14" t="n">
-        <v>6875425.059267788</v>
+        <v>6875299.456096188</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2153,10 +2157,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111908768</v>
+        <v>111909536</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2165,32 +2169,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2198,10 +2198,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>467911.8445363804</v>
+        <v>467891.3929605001</v>
       </c>
       <c r="R15" t="n">
-        <v>6875299.456096188</v>
+        <v>6875425.059267788</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2270,10 +2270,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111908364</v>
+        <v>111909174</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>77267</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2286,35 +2286,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>6446</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Gröbäcken, Hjd</t>
+          <t>Fläcksberget, Hjd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>467724.2196293612</v>
+        <v>467989.0228066717</v>
       </c>
       <c r="R16" t="n">
-        <v>6874811.291555981</v>
+        <v>6875352.744105402</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111909174</v>
+        <v>111909766</v>
       </c>
       <c r="B17" t="n">
-        <v>77267</v>
+        <v>89183</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2395,25 +2395,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6446</v>
+        <v>3215</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>467989.0228066717</v>
+        <v>467756.8135427741</v>
       </c>
       <c r="R17" t="n">
-        <v>6875352.744105402</v>
+        <v>6875469.545251801</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111909766</v>
+        <v>111908364</v>
       </c>
       <c r="B18" t="n">
-        <v>89183</v>
+        <v>90660</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2508,39 +2508,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3215</v>
+        <v>4362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Gröbäcken, Hjd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>467756.8135427741</v>
+        <v>467724.2196293612</v>
       </c>
       <c r="R18" t="n">
-        <v>6875469.545251801</v>
+        <v>6874811.291555981</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2849,10 +2849,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112014208</v>
+        <v>112014347</v>
       </c>
       <c r="B21" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2861,25 +2861,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>467418.043506761</v>
+        <v>467430.0274016621</v>
       </c>
       <c r="R21" t="n">
-        <v>6875312.610613029</v>
+        <v>6875237.811246304</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2962,10 +2962,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112015011</v>
+        <v>112014229</v>
       </c>
       <c r="B22" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2978,21 +2978,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>467389.9660160011</v>
+        <v>467427.230114766</v>
       </c>
       <c r="R22" t="n">
-        <v>6875327.91063729</v>
+        <v>6875289.506732536</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3075,10 +3075,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112014229</v>
+        <v>112014300</v>
       </c>
       <c r="B23" t="n">
-        <v>90682</v>
+        <v>90689</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3091,21 +3091,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3116,10 +3116,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>467427.230114766</v>
+        <v>467415.4484496959</v>
       </c>
       <c r="R23" t="n">
-        <v>6875289.506732536</v>
+        <v>6875287.271149865</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3188,10 +3188,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112014423</v>
+        <v>112014923</v>
       </c>
       <c r="B24" t="n">
-        <v>90658</v>
+        <v>90689</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3204,21 +3204,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3229,10 +3229,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>467430.0274016621</v>
+        <v>467413.0579403224</v>
       </c>
       <c r="R24" t="n">
-        <v>6875237.811246304</v>
+        <v>6875234.216212902</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3301,10 +3301,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112014177</v>
+        <v>112014208</v>
       </c>
       <c r="B25" t="n">
-        <v>90689</v>
+        <v>90658</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3317,21 +3317,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>467389.9660160011</v>
+        <v>467418.043506761</v>
       </c>
       <c r="R25" t="n">
-        <v>6875327.91063729</v>
+        <v>6875312.610613029</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3414,10 +3414,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112014923</v>
+        <v>112014142</v>
       </c>
       <c r="B26" t="n">
-        <v>90689</v>
+        <v>90666</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3426,25 +3426,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>467413.0579403224</v>
+        <v>467442.7363991642</v>
       </c>
       <c r="R26" t="n">
-        <v>6875234.216212902</v>
+        <v>6875336.798642672</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3527,10 +3527,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112014347</v>
+        <v>112015011</v>
       </c>
       <c r="B27" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3539,25 +3539,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3568,10 +3568,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>467430.0274016621</v>
+        <v>467389.9660160011</v>
       </c>
       <c r="R27" t="n">
-        <v>6875237.811246304</v>
+        <v>6875327.91063729</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3640,10 +3640,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112014142</v>
+        <v>112014423</v>
       </c>
       <c r="B28" t="n">
-        <v>90666</v>
+        <v>90658</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3652,25 +3652,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3681,10 +3681,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>467442.7363991642</v>
+        <v>467430.0274016621</v>
       </c>
       <c r="R28" t="n">
-        <v>6875336.798642672</v>
+        <v>6875237.811246304</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112014300</v>
+        <v>112014177</v>
       </c>
       <c r="B29" t="n">
         <v>90689</v>
@@ -3794,10 +3794,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>467415.4484496959</v>
+        <v>467389.9660160011</v>
       </c>
       <c r="R29" t="n">
-        <v>6875287.271149865</v>
+        <v>6875327.91063729</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>

--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -1588,7 +1588,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111527806</v>
+        <v>111527876</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111528365</v>
+        <v>111528980</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1742,10 +1742,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>467795.2212022893</v>
+        <v>467799.8074815667</v>
       </c>
       <c r="R11" t="n">
-        <v>6875452.272210476</v>
+        <v>6875539.119922069</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111528980</v>
+        <v>111528300</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>467799.8074815667</v>
+        <v>467795.2212022893</v>
       </c>
       <c r="R12" t="n">
-        <v>6875539.119922069</v>
+        <v>6875452.272210476</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1901,6 +1901,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2040,10 +2045,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111908768</v>
+        <v>111909536</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2052,32 +2057,28 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2085,10 +2086,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>467911.8445363804</v>
+        <v>467891.3929605001</v>
       </c>
       <c r="R14" t="n">
-        <v>6875299.456096188</v>
+        <v>6875425.059267788</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2157,10 +2158,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111909536</v>
+        <v>111909766</v>
       </c>
       <c r="B15" t="n">
-        <v>77267</v>
+        <v>89183</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2169,25 +2170,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6446</v>
+        <v>3215</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2198,10 +2199,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>467891.3929605001</v>
+        <v>467756.8135427741</v>
       </c>
       <c r="R15" t="n">
-        <v>6875425.059267788</v>
+        <v>6875469.545251801</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2270,10 +2271,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111909174</v>
+        <v>111908700</v>
       </c>
       <c r="B16" t="n">
-        <v>77267</v>
+        <v>89965</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2282,28 +2283,37 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6446</v>
+        <v>760</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2311,10 +2321,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>467989.0228066717</v>
+        <v>467921.7931363151</v>
       </c>
       <c r="R16" t="n">
-        <v>6875352.744105402</v>
+        <v>6875306.87748003</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2357,6 +2367,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Förekomst av doftticka i avverkningsanmält område.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2383,10 +2398,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111909766</v>
+        <v>111908364</v>
       </c>
       <c r="B17" t="n">
-        <v>89183</v>
+        <v>90660</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2395,39 +2410,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3215</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Gröbäcken, Hjd</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>467756.8135427741</v>
+        <v>467724.2196293612</v>
       </c>
       <c r="R17" t="n">
-        <v>6875469.545251801</v>
+        <v>6874811.291555981</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2496,10 +2511,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111908364</v>
+        <v>111909174</v>
       </c>
       <c r="B18" t="n">
-        <v>90660</v>
+        <v>77267</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2512,35 +2527,35 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4362</v>
+        <v>6446</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Gröbäcken, Hjd</t>
+          <t>Fläcksberget, Hjd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>467724.2196293612</v>
+        <v>467989.0228066717</v>
       </c>
       <c r="R18" t="n">
-        <v>6874811.291555981</v>
+        <v>6875352.744105402</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2609,10 +2624,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111908700</v>
+        <v>111908768</v>
       </c>
       <c r="B19" t="n">
-        <v>89965</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2625,31 +2640,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>760</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2659,10 +2669,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>467921.7931363151</v>
+        <v>467911.8445363804</v>
       </c>
       <c r="R19" t="n">
-        <v>6875306.87748003</v>
+        <v>6875299.456096188</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2705,11 +2715,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Förekomst av doftticka i avverkningsanmält område.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2849,10 +2854,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112014347</v>
+        <v>112014300</v>
       </c>
       <c r="B21" t="n">
-        <v>90678</v>
+        <v>90689</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2861,25 +2866,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4366</v>
+        <v>5966</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2890,10 +2895,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>467430.0274016621</v>
+        <v>467415.4484496959</v>
       </c>
       <c r="R21" t="n">
-        <v>6875237.811246304</v>
+        <v>6875287.271149865</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2962,10 +2967,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112014229</v>
+        <v>112014142</v>
       </c>
       <c r="B22" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2974,25 +2979,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3003,10 +3008,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>467427.230114766</v>
+        <v>467442.7363991642</v>
       </c>
       <c r="R22" t="n">
-        <v>6875289.506732536</v>
+        <v>6875336.798642672</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3075,10 +3080,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112014300</v>
+        <v>112014229</v>
       </c>
       <c r="B23" t="n">
-        <v>90689</v>
+        <v>90682</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3091,21 +3096,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5966</v>
+        <v>2059</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3116,10 +3121,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>467415.4484496959</v>
+        <v>467427.230114766</v>
       </c>
       <c r="R23" t="n">
-        <v>6875287.271149865</v>
+        <v>6875289.506732536</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3188,7 +3193,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112014923</v>
+        <v>112014177</v>
       </c>
       <c r="B24" t="n">
         <v>90689</v>
@@ -3229,10 +3234,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>467413.0579403224</v>
+        <v>467389.9660160011</v>
       </c>
       <c r="R24" t="n">
-        <v>6875234.216212902</v>
+        <v>6875327.91063729</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3301,10 +3306,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112014208</v>
+        <v>112014923</v>
       </c>
       <c r="B25" t="n">
-        <v>90658</v>
+        <v>90689</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3317,21 +3322,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3342,10 +3347,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>467418.043506761</v>
+        <v>467413.0579403224</v>
       </c>
       <c r="R25" t="n">
-        <v>6875312.610613029</v>
+        <v>6875234.216212902</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3414,10 +3419,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112014142</v>
+        <v>112014347</v>
       </c>
       <c r="B26" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3430,21 +3435,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3455,10 +3460,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>467442.7363991642</v>
+        <v>467430.0274016621</v>
       </c>
       <c r="R26" t="n">
-        <v>6875336.798642672</v>
+        <v>6875237.811246304</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3527,7 +3532,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112015011</v>
+        <v>112014208</v>
       </c>
       <c r="B27" t="n">
         <v>90658</v>
@@ -3568,10 +3573,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>467389.9660160011</v>
+        <v>467418.043506761</v>
       </c>
       <c r="R27" t="n">
-        <v>6875327.91063729</v>
+        <v>6875312.610613029</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3640,7 +3645,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112014423</v>
+        <v>112015011</v>
       </c>
       <c r="B28" t="n">
         <v>90658</v>
@@ -3681,10 +3686,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>467430.0274016621</v>
+        <v>467389.9660160011</v>
       </c>
       <c r="R28" t="n">
-        <v>6875237.811246304</v>
+        <v>6875327.91063729</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3753,10 +3758,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112014177</v>
+        <v>112014423</v>
       </c>
       <c r="B29" t="n">
-        <v>90689</v>
+        <v>90658</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3769,21 +3774,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3794,10 +3799,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>467389.9660160011</v>
+        <v>467430.0274016621</v>
       </c>
       <c r="R29" t="n">
-        <v>6875327.91063729</v>
+        <v>6875237.811246304</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>

--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -2158,10 +2158,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111909766</v>
+        <v>111909174</v>
       </c>
       <c r="B15" t="n">
-        <v>89183</v>
+        <v>77267</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2170,25 +2170,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3215</v>
+        <v>6446</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2199,10 +2199,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>467756.8135427741</v>
+        <v>467989.0228066717</v>
       </c>
       <c r="R15" t="n">
-        <v>6875469.545251801</v>
+        <v>6875352.744105402</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2398,10 +2398,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111908364</v>
+        <v>111908768</v>
       </c>
       <c r="B17" t="n">
-        <v>90660</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2410,39 +2410,43 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4362</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Gröbäcken, Hjd</t>
+          <t>Fläcksberget, Hjd</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>467724.2196293612</v>
+        <v>467911.8445363804</v>
       </c>
       <c r="R17" t="n">
-        <v>6874811.291555981</v>
+        <v>6875299.456096188</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2511,10 +2515,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111909174</v>
+        <v>111908364</v>
       </c>
       <c r="B18" t="n">
-        <v>77267</v>
+        <v>90660</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2527,35 +2531,35 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6446</v>
+        <v>4362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Gröbäcken, Hjd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>467989.0228066717</v>
+        <v>467724.2196293612</v>
       </c>
       <c r="R18" t="n">
-        <v>6875352.744105402</v>
+        <v>6874811.291555981</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2624,10 +2628,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111908768</v>
+        <v>111909766</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>89183</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,32 +2640,28 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>3215</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2669,10 +2669,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>467911.8445363804</v>
+        <v>467756.8135427741</v>
       </c>
       <c r="R19" t="n">
-        <v>6875299.456096188</v>
+        <v>6875469.545251801</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2854,10 +2854,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112014300</v>
+        <v>112014423</v>
       </c>
       <c r="B21" t="n">
-        <v>90689</v>
+        <v>90658</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2870,21 +2870,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>467415.4484496959</v>
+        <v>467430.0274016621</v>
       </c>
       <c r="R21" t="n">
-        <v>6875287.271149865</v>
+        <v>6875237.811246304</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112014142</v>
+        <v>112014347</v>
       </c>
       <c r="B22" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2983,21 +2983,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3008,10 +3008,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>467442.7363991642</v>
+        <v>467430.0274016621</v>
       </c>
       <c r="R22" t="n">
-        <v>6875336.798642672</v>
+        <v>6875237.811246304</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112014229</v>
+        <v>112014300</v>
       </c>
       <c r="B23" t="n">
-        <v>90682</v>
+        <v>90689</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3096,21 +3096,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3121,10 +3121,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>467427.230114766</v>
+        <v>467415.4484496959</v>
       </c>
       <c r="R23" t="n">
-        <v>6875289.506732536</v>
+        <v>6875287.271149865</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3193,10 +3193,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112014177</v>
+        <v>112015011</v>
       </c>
       <c r="B24" t="n">
-        <v>90689</v>
+        <v>90658</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3209,21 +3209,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112014923</v>
+        <v>112014177</v>
       </c>
       <c r="B25" t="n">
         <v>90689</v>
@@ -3347,10 +3347,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>467413.0579403224</v>
+        <v>467389.9660160011</v>
       </c>
       <c r="R25" t="n">
-        <v>6875234.216212902</v>
+        <v>6875327.91063729</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3419,10 +3419,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112014347</v>
+        <v>112014142</v>
       </c>
       <c r="B26" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3435,21 +3435,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>467430.0274016621</v>
+        <v>467442.7363991642</v>
       </c>
       <c r="R26" t="n">
-        <v>6875237.811246304</v>
+        <v>6875336.798642672</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3532,10 +3532,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112014208</v>
+        <v>112014923</v>
       </c>
       <c r="B27" t="n">
-        <v>90658</v>
+        <v>90689</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3548,21 +3548,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>467418.043506761</v>
+        <v>467413.0579403224</v>
       </c>
       <c r="R27" t="n">
-        <v>6875312.610613029</v>
+        <v>6875234.216212902</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112015011</v>
+        <v>112014208</v>
       </c>
       <c r="B28" t="n">
         <v>90658</v>
@@ -3686,10 +3686,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>467389.9660160011</v>
+        <v>467418.043506761</v>
       </c>
       <c r="R28" t="n">
-        <v>6875327.91063729</v>
+        <v>6875312.610613029</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3758,10 +3758,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112014423</v>
+        <v>112014229</v>
       </c>
       <c r="B29" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3774,21 +3774,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3799,10 +3799,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>467430.0274016621</v>
+        <v>467427.230114766</v>
       </c>
       <c r="R29" t="n">
-        <v>6875237.811246304</v>
+        <v>6875289.506732536</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>

--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -2854,10 +2854,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112014423</v>
+        <v>112014347</v>
       </c>
       <c r="B21" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2866,25 +2866,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112014347</v>
+        <v>112014423</v>
       </c>
       <c r="B22" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2979,25 +2979,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>

--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -2045,10 +2045,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111909536</v>
+        <v>111908364</v>
       </c>
       <c r="B14" t="n">
-        <v>77267</v>
+        <v>90660</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2061,35 +2061,35 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6446</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Gröbäcken, Hjd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>467891.3929605001</v>
+        <v>467724</v>
       </c>
       <c r="R14" t="n">
-        <v>6875425.059267788</v>
+        <v>6874811</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2119,19 +2119,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2158,7 +2148,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111909174</v>
+        <v>111909536</v>
       </c>
       <c r="B15" t="n">
         <v>77267</v>
@@ -2199,10 +2189,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>467989.0228066717</v>
+        <v>467891</v>
       </c>
       <c r="R15" t="n">
-        <v>6875352.744105402</v>
+        <v>6875425</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2232,19 +2222,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2321,10 +2301,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>467921.7931363151</v>
+        <v>467922</v>
       </c>
       <c r="R16" t="n">
-        <v>6875306.87748003</v>
+        <v>6875307</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2354,19 +2334,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2443,10 +2413,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>467911.8445363804</v>
+        <v>467912</v>
       </c>
       <c r="R17" t="n">
-        <v>6875299.456096188</v>
+        <v>6875299</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2476,19 +2446,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2515,10 +2475,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111908364</v>
+        <v>111909766</v>
       </c>
       <c r="B18" t="n">
-        <v>90660</v>
+        <v>89183</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2527,39 +2487,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4362</v>
+        <v>3215</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Gröbäcken, Hjd</t>
+          <t>Fläcksberget, Hjd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>467724.2196293612</v>
+        <v>467757</v>
       </c>
       <c r="R18" t="n">
-        <v>6874811.291555981</v>
+        <v>6875470</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2589,19 +2549,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2628,10 +2578,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111909766</v>
+        <v>111909174</v>
       </c>
       <c r="B19" t="n">
-        <v>89183</v>
+        <v>77267</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2640,25 +2590,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3215</v>
+        <v>6446</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2669,10 +2619,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>467756.8135427741</v>
+        <v>467989</v>
       </c>
       <c r="R19" t="n">
-        <v>6875469.545251801</v>
+        <v>6875353</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2702,19 +2652,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2782,10 +2722,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>468231.4750461024</v>
+        <v>468231</v>
       </c>
       <c r="R20" t="n">
-        <v>6875021.661872049</v>
+        <v>6875022</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2815,19 +2755,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2895,10 +2825,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>467430.0274016621</v>
+        <v>467430</v>
       </c>
       <c r="R21" t="n">
-        <v>6875237.811246304</v>
+        <v>6875238</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2928,19 +2858,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2967,7 +2887,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112014423</v>
+        <v>112014208</v>
       </c>
       <c r="B22" t="n">
         <v>90658</v>
@@ -3008,10 +2928,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>467430.0274016621</v>
+        <v>467418</v>
       </c>
       <c r="R22" t="n">
-        <v>6875237.811246304</v>
+        <v>6875313</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3041,19 +2961,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3080,7 +2990,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112014300</v>
+        <v>112014177</v>
       </c>
       <c r="B23" t="n">
         <v>90689</v>
@@ -3121,10 +3031,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>467415.4484496959</v>
+        <v>467390</v>
       </c>
       <c r="R23" t="n">
-        <v>6875287.271149865</v>
+        <v>6875328</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3154,19 +3064,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3234,10 +3134,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>467389.9660160011</v>
+        <v>467390</v>
       </c>
       <c r="R24" t="n">
-        <v>6875327.91063729</v>
+        <v>6875328</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3267,19 +3167,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3306,10 +3196,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112014177</v>
+        <v>112014423</v>
       </c>
       <c r="B25" t="n">
-        <v>90689</v>
+        <v>90658</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3322,21 +3212,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3347,10 +3237,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>467389.9660160011</v>
+        <v>467430</v>
       </c>
       <c r="R25" t="n">
-        <v>6875327.91063729</v>
+        <v>6875238</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3380,19 +3270,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3419,10 +3299,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112014142</v>
+        <v>112014923</v>
       </c>
       <c r="B26" t="n">
-        <v>90666</v>
+        <v>90689</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3431,25 +3311,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3460,10 +3340,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>467442.7363991642</v>
+        <v>467413</v>
       </c>
       <c r="R26" t="n">
-        <v>6875336.798642672</v>
+        <v>6875234</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3493,19 +3373,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3532,10 +3402,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112014923</v>
+        <v>112014229</v>
       </c>
       <c r="B27" t="n">
-        <v>90689</v>
+        <v>90682</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3548,21 +3418,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5966</v>
+        <v>2059</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3573,10 +3443,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>467413.0579403224</v>
+        <v>467427</v>
       </c>
       <c r="R27" t="n">
-        <v>6875234.216212902</v>
+        <v>6875290</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3606,19 +3476,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3645,10 +3505,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112014208</v>
+        <v>112014142</v>
       </c>
       <c r="B28" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3657,25 +3517,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3686,10 +3546,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>467418.043506761</v>
+        <v>467443</v>
       </c>
       <c r="R28" t="n">
-        <v>6875312.610613029</v>
+        <v>6875337</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3719,19 +3579,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3758,10 +3608,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112014229</v>
+        <v>112014300</v>
       </c>
       <c r="B29" t="n">
-        <v>90682</v>
+        <v>90689</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3774,21 +3624,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3799,10 +3649,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>467427.230114766</v>
+        <v>467415</v>
       </c>
       <c r="R29" t="n">
-        <v>6875289.506732536</v>
+        <v>6875287</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
@@ -3832,19 +3682,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">

--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -2045,10 +2045,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111908364</v>
+        <v>111909536</v>
       </c>
       <c r="B14" t="n">
-        <v>90660</v>
+        <v>77388</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2061,35 +2061,35 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Gröbäcken, Hjd</t>
+          <t>Fläcksberget, Hjd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>467724</v>
+        <v>467891</v>
       </c>
       <c r="R14" t="n">
-        <v>6874811</v>
+        <v>6875425</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111909536</v>
+        <v>111908364</v>
       </c>
       <c r="B15" t="n">
-        <v>77267</v>
+        <v>90794</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2164,35 +2164,35 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6446</v>
+        <v>4362</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Gröbäcken, Hjd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>467891</v>
+        <v>467724</v>
       </c>
       <c r="R15" t="n">
-        <v>6875425</v>
+        <v>6874811</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111908700</v>
+        <v>111909174</v>
       </c>
       <c r="B16" t="n">
-        <v>89965</v>
+        <v>77388</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2263,37 +2263,28 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>760</v>
+        <v>6446</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2301,10 +2292,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>467922</v>
+        <v>467989</v>
       </c>
       <c r="R16" t="n">
-        <v>6875307</v>
+        <v>6875353</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2337,11 +2328,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Förekomst av doftticka i avverkningsanmält område.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2371,7 +2357,7 @@
         <v>111908768</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2475,10 +2461,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111909766</v>
+        <v>111908700</v>
       </c>
       <c r="B18" t="n">
-        <v>89183</v>
+        <v>90099</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2487,28 +2473,37 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3215</v>
+        <v>760</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2516,10 +2511,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>467757</v>
+        <v>467922</v>
       </c>
       <c r="R18" t="n">
-        <v>6875470</v>
+        <v>6875307</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2552,6 +2547,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Förekomst av doftticka i avverkningsanmält område.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2578,10 +2578,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111909174</v>
+        <v>111909766</v>
       </c>
       <c r="B19" t="n">
-        <v>77267</v>
+        <v>89317</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2590,25 +2590,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6446</v>
+        <v>3215</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2619,10 +2619,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>467989</v>
+        <v>467757</v>
       </c>
       <c r="R19" t="n">
-        <v>6875353</v>
+        <v>6875470</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2684,7 +2684,7 @@
         <v>111942712</v>
       </c>
       <c r="B20" t="n">
-        <v>77267</v>
+        <v>77388</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>112014347</v>
       </c>
       <c r="B21" t="n">
-        <v>90678</v>
+        <v>90812</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2887,10 +2887,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112014208</v>
+        <v>112014300</v>
       </c>
       <c r="B22" t="n">
-        <v>90658</v>
+        <v>90823</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2903,21 +2903,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>467418</v>
+        <v>467415</v>
       </c>
       <c r="R22" t="n">
-        <v>6875313</v>
+        <v>6875287</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -2990,10 +2990,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112014177</v>
+        <v>112014923</v>
       </c>
       <c r="B23" t="n">
-        <v>90689</v>
+        <v>90823</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3031,10 +3031,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>467390</v>
+        <v>467413</v>
       </c>
       <c r="R23" t="n">
-        <v>6875328</v>
+        <v>6875234</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112015011</v>
+        <v>112014177</v>
       </c>
       <c r="B24" t="n">
-        <v>90658</v>
+        <v>90823</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3109,21 +3109,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3196,10 +3196,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112014423</v>
+        <v>112015011</v>
       </c>
       <c r="B25" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3237,10 +3237,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>467430</v>
+        <v>467390</v>
       </c>
       <c r="R25" t="n">
-        <v>6875238</v>
+        <v>6875328</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3299,10 +3299,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112014923</v>
+        <v>112014423</v>
       </c>
       <c r="B26" t="n">
-        <v>90689</v>
+        <v>90792</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3315,21 +3315,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>467413</v>
+        <v>467430</v>
       </c>
       <c r="R26" t="n">
-        <v>6875234</v>
+        <v>6875238</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3405,7 +3405,7 @@
         <v>112014229</v>
       </c>
       <c r="B27" t="n">
-        <v>90682</v>
+        <v>90816</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112014142</v>
+        <v>112014208</v>
       </c>
       <c r="B28" t="n">
-        <v>90666</v>
+        <v>90792</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3517,25 +3517,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3546,10 +3546,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>467443</v>
+        <v>467418</v>
       </c>
       <c r="R28" t="n">
-        <v>6875337</v>
+        <v>6875313</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112014300</v>
+        <v>112014142</v>
       </c>
       <c r="B29" t="n">
-        <v>90689</v>
+        <v>90800</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3620,25 +3620,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3649,10 +3649,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>467415</v>
+        <v>467443</v>
       </c>
       <c r="R29" t="n">
-        <v>6875287</v>
+        <v>6875337</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>

--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -2045,10 +2045,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111909536</v>
+        <v>111908768</v>
       </c>
       <c r="B14" t="n">
-        <v>77388</v>
+        <v>96735</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2057,28 +2057,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2086,10 +2090,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>467891</v>
+        <v>467912</v>
       </c>
       <c r="R14" t="n">
-        <v>6875425</v>
+        <v>6875299</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2148,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111908364</v>
+        <v>111909766</v>
       </c>
       <c r="B15" t="n">
-        <v>90794</v>
+        <v>89331</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2160,39 +2164,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4362</v>
+        <v>3215</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Gröbäcken, Hjd</t>
+          <t>Fläcksberget, Hjd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>467724</v>
+        <v>467757</v>
       </c>
       <c r="R15" t="n">
-        <v>6874811</v>
+        <v>6875470</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2251,10 +2255,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111909174</v>
+        <v>111908364</v>
       </c>
       <c r="B16" t="n">
-        <v>77388</v>
+        <v>90808</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2267,35 +2271,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6446</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Fläcksberget, Hjd</t>
+          <t>Gröbäcken, Hjd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>467989</v>
+        <v>467724</v>
       </c>
       <c r="R16" t="n">
-        <v>6875353</v>
+        <v>6874811</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2354,10 +2358,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111908768</v>
+        <v>111908700</v>
       </c>
       <c r="B17" t="n">
-        <v>96720</v>
+        <v>90113</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2370,26 +2374,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>760</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -2399,10 +2408,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>467912</v>
+        <v>467922</v>
       </c>
       <c r="R17" t="n">
-        <v>6875299</v>
+        <v>6875307</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2435,6 +2444,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Förekomst av doftticka i avverkningsanmält område.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2461,10 +2475,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111908700</v>
+        <v>111909536</v>
       </c>
       <c r="B18" t="n">
-        <v>90099</v>
+        <v>77402</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2473,37 +2487,28 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>760</v>
+        <v>6446</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2511,10 +2516,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>467922</v>
+        <v>467891</v>
       </c>
       <c r="R18" t="n">
-        <v>6875307</v>
+        <v>6875425</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2547,11 +2552,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Förekomst av doftticka i avverkningsanmält område.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2578,10 +2578,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111909766</v>
+        <v>111909174</v>
       </c>
       <c r="B19" t="n">
-        <v>89317</v>
+        <v>77402</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2590,25 +2590,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3215</v>
+        <v>6446</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2619,10 +2619,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>467757</v>
+        <v>467989</v>
       </c>
       <c r="R19" t="n">
-        <v>6875470</v>
+        <v>6875353</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2684,7 +2684,7 @@
         <v>111942712</v>
       </c>
       <c r="B20" t="n">
-        <v>77388</v>
+        <v>77402</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>112014347</v>
       </c>
       <c r="B21" t="n">
-        <v>90812</v>
+        <v>90826</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2887,10 +2887,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112014300</v>
+        <v>112014142</v>
       </c>
       <c r="B22" t="n">
-        <v>90823</v>
+        <v>90814</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2899,25 +2899,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>467415</v>
+        <v>467443</v>
       </c>
       <c r="R22" t="n">
-        <v>6875287</v>
+        <v>6875337</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -2990,10 +2990,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112014923</v>
+        <v>112014229</v>
       </c>
       <c r="B23" t="n">
-        <v>90823</v>
+        <v>90830</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3006,21 +3006,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5966</v>
+        <v>2059</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3031,10 +3031,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>467413</v>
+        <v>467427</v>
       </c>
       <c r="R23" t="n">
-        <v>6875234</v>
+        <v>6875290</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112014177</v>
+        <v>112014300</v>
       </c>
       <c r="B24" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3134,10 +3134,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>467390</v>
+        <v>467415</v>
       </c>
       <c r="R24" t="n">
-        <v>6875328</v>
+        <v>6875287</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3196,10 +3196,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112015011</v>
+        <v>112014923</v>
       </c>
       <c r="B25" t="n">
-        <v>90792</v>
+        <v>90837</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3212,21 +3212,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3237,10 +3237,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>467390</v>
+        <v>467413</v>
       </c>
       <c r="R25" t="n">
-        <v>6875328</v>
+        <v>6875234</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3299,10 +3299,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112014423</v>
+        <v>112014208</v>
       </c>
       <c r="B26" t="n">
-        <v>90792</v>
+        <v>90806</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>467430</v>
+        <v>467418</v>
       </c>
       <c r="R26" t="n">
-        <v>6875238</v>
+        <v>6875313</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3402,10 +3402,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112014229</v>
+        <v>112015011</v>
       </c>
       <c r="B27" t="n">
-        <v>90816</v>
+        <v>90806</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3418,21 +3418,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3443,10 +3443,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>467427</v>
+        <v>467390</v>
       </c>
       <c r="R27" t="n">
-        <v>6875290</v>
+        <v>6875328</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112014208</v>
+        <v>112014423</v>
       </c>
       <c r="B28" t="n">
-        <v>90792</v>
+        <v>90806</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3546,10 +3546,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>467418</v>
+        <v>467430</v>
       </c>
       <c r="R28" t="n">
-        <v>6875313</v>
+        <v>6875238</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112014142</v>
+        <v>112014177</v>
       </c>
       <c r="B29" t="n">
-        <v>90800</v>
+        <v>90837</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3620,25 +3620,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3649,10 +3649,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>467443</v>
+        <v>467390</v>
       </c>
       <c r="R29" t="n">
-        <v>6875337</v>
+        <v>6875328</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>

--- a/artfynd/A 18916-2022.xlsx
+++ b/artfynd/A 18916-2022.xlsx
@@ -2475,7 +2475,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111909536</v>
+        <v>111909174</v>
       </c>
       <c r="B18" t="n">
         <v>77402</v>
@@ -2516,10 +2516,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>467891</v>
+        <v>467989</v>
       </c>
       <c r="R18" t="n">
-        <v>6875425</v>
+        <v>6875353</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111909174</v>
+        <v>111909536</v>
       </c>
       <c r="B19" t="n">
         <v>77402</v>
@@ -2619,10 +2619,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>467989</v>
+        <v>467891</v>
       </c>
       <c r="R19" t="n">
-        <v>6875353</v>
+        <v>6875425</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2784,10 +2784,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112014347</v>
+        <v>112014208</v>
       </c>
       <c r="B21" t="n">
-        <v>90826</v>
+        <v>90806</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2796,25 +2796,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>467430</v>
+        <v>467418</v>
       </c>
       <c r="R21" t="n">
-        <v>6875238</v>
+        <v>6875313</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2887,10 +2887,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112014142</v>
+        <v>112014177</v>
       </c>
       <c r="B22" t="n">
-        <v>90814</v>
+        <v>90837</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2899,25 +2899,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>467443</v>
+        <v>467390</v>
       </c>
       <c r="R22" t="n">
-        <v>6875337</v>
+        <v>6875328</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -2990,10 +2990,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112014229</v>
+        <v>112014300</v>
       </c>
       <c r="B23" t="n">
-        <v>90830</v>
+        <v>90837</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3006,21 +3006,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3031,10 +3031,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>467427</v>
+        <v>467415</v>
       </c>
       <c r="R23" t="n">
-        <v>6875290</v>
+        <v>6875287</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112014300</v>
+        <v>112014142</v>
       </c>
       <c r="B24" t="n">
-        <v>90837</v>
+        <v>90814</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3105,25 +3105,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3134,10 +3134,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>467415</v>
+        <v>467443</v>
       </c>
       <c r="R24" t="n">
-        <v>6875287</v>
+        <v>6875337</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3196,10 +3196,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112014923</v>
+        <v>112014423</v>
       </c>
       <c r="B25" t="n">
-        <v>90837</v>
+        <v>90806</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3212,21 +3212,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3237,10 +3237,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>467413</v>
+        <v>467430</v>
       </c>
       <c r="R25" t="n">
-        <v>6875234</v>
+        <v>6875238</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3299,10 +3299,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112014208</v>
+        <v>112014923</v>
       </c>
       <c r="B26" t="n">
-        <v>90806</v>
+        <v>90837</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3315,21 +3315,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>467418</v>
+        <v>467413</v>
       </c>
       <c r="R26" t="n">
-        <v>6875313</v>
+        <v>6875234</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3402,10 +3402,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112015011</v>
+        <v>112014347</v>
       </c>
       <c r="B27" t="n">
-        <v>90806</v>
+        <v>90826</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3414,25 +3414,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3443,10 +3443,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>467390</v>
+        <v>467430</v>
       </c>
       <c r="R27" t="n">
-        <v>6875328</v>
+        <v>6875238</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112014423</v>
+        <v>112015011</v>
       </c>
       <c r="B28" t="n">
         <v>90806</v>
@@ -3546,10 +3546,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>467430</v>
+        <v>467390</v>
       </c>
       <c r="R28" t="n">
-        <v>6875238</v>
+        <v>6875328</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112014177</v>
+        <v>112014229</v>
       </c>
       <c r="B29" t="n">
-        <v>90837</v>
+        <v>90830</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3624,21 +3624,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5966</v>
+        <v>2059</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3649,10 +3649,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>467390</v>
+        <v>467427</v>
       </c>
       <c r="R29" t="n">
-        <v>6875328</v>
+        <v>6875290</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
